--- a/public/rapport2024.xlsx
+++ b/public/rapport2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WhistleBlower\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABED2B82-761E-4D21-8626-29B5E33DFF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A6A2B6-EB2C-4955-82BF-19BBA650164B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{787D5B4A-6F5C-48F3-884B-5FEE905BEFD2}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Janvier</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Consommation année 2025</t>
   </si>
@@ -51,36 +45,6 @@
   </si>
   <si>
     <t>Consommation</t>
-  </si>
-  <si>
-    <t>Février</t>
-  </si>
-  <si>
-    <t>Avril</t>
-  </si>
-  <si>
-    <t>Mai</t>
-  </si>
-  <si>
-    <t>Juin</t>
-  </si>
-  <si>
-    <t>Juillet</t>
-  </si>
-  <si>
-    <t>Août</t>
-  </si>
-  <si>
-    <t>Septembre</t>
-  </si>
-  <si>
-    <t>Octobre</t>
-  </si>
-  <si>
-    <t>Novembre</t>
-  </si>
-  <si>
-    <t>Décembre</t>
   </si>
 </sst>
 </file>
@@ -464,7 +428,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,109 +439,109 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
+      <c r="A7">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
+      <c r="A9">
+        <v>7</v>
       </c>
       <c r="B9">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
+      <c r="A10">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="A11">
+        <v>9</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
+      <c r="A12">
+        <v>10</v>
       </c>
       <c r="B12">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
+      <c r="A13">
+        <v>11</v>
       </c>
       <c r="B13">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
+      <c r="A14">
+        <v>12</v>
       </c>
       <c r="B14">
         <v>253</v>
